--- a/ref/ipcc_data_tables_and_derivations/AFOLU/afolu_c2_general_use_tables.xlsx
+++ b/ref/ipcc_data_tables_and_derivations/AFOLU/afolu_c2_general_use_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ipcc_data_tables_and_derivations/AFOLU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6E0CC9-1A42-984A-BF13-8C6FAE34C9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0A74E9-BA31-F645-8C3B-4813831E6729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="3100" windowWidth="16700" windowHeight="12440" xr2:uid="{0F7B3AC4-6872-894F-9C5F-CA57A58590FF}"/>
+    <workbookView xWindow="6140" yWindow="460" windowWidth="24220" windowHeight="17520" xr2:uid="{0F7B3AC4-6872-894F-9C5F-CA57A58590FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2.3" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>climate region</t>
   </si>
@@ -58,6 +58,9 @@
     <t>tropical, dry</t>
   </si>
   <si>
+    <t>tropical</t>
+  </si>
+  <si>
     <t>tropical, moist</t>
   </si>
   <si>
@@ -83,14 +86,52 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>temperate_nutrient_poor</t>
+  </si>
+  <si>
+    <t>temperate_nutrient_rich</t>
+  </si>
+  <si>
+    <t>temperate</t>
+  </si>
+  <si>
+    <t>KT N2O-N</t>
+  </si>
+  <si>
+    <t>KT N</t>
+  </si>
+  <si>
+    <t>KT SOC</t>
+  </si>
+  <si>
+    <t>0.026 MT CO2E</t>
+  </si>
+  <si>
+    <t>KT N2O CO2E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -118,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -126,7 +167,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -443,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2309310-36C2-3042-96FD-24727249267F}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,27 +498,27 @@
     <col min="1" max="1" width="23" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -482,7 +526,7 @@
         <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -494,7 +538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -508,13 +552,13 @@
         <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -534,7 +578,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -548,13 +592,13 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -568,13 +612,13 @@
         <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -588,15 +632,15 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>65</v>
@@ -608,15 +652,15 @@
         <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>44</v>
@@ -628,15 +672,15 @@
         <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>88</v>
@@ -648,10 +692,273 @@
         <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1">
         <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B3:F3,B5:F5,B7:F7)</f>
+        <v>36.833333333333336</v>
+      </c>
+      <c r="C12">
+        <f>MIN(B3:F3,B5:F5,B7:F7)</f>
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <f>MAX(B3:F3,B5:F5,B7:F7)</f>
+        <v>70</v>
+      </c>
+      <c r="E12">
+        <f>C12/B12</f>
+        <v>0.51583710407239813</v>
+      </c>
+      <c r="F12">
+        <f>D12/B12</f>
+        <v>1.9004524886877827</v>
+      </c>
+      <c r="G12">
+        <v>36.833333333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(B4:F4,B6:F6,B8:F8,B9:F9)</f>
+        <v>75.411764705882348</v>
+      </c>
+      <c r="C13">
+        <f>MIN(B4:F4,B6:F6,B8:F8,B9:F9)</f>
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <f>MAX(B4:F4,B6:F6,B8:F8,B9:F9)</f>
+        <v>130</v>
+      </c>
+      <c r="E13">
+        <f>C13/B13</f>
+        <v>0.45085803432137289</v>
+      </c>
+      <c r="F13">
+        <f>D13/B13</f>
+        <v>1.7238689547581905</v>
+      </c>
+      <c r="G13">
+        <v>75.411764705882348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B7:F10)</f>
+        <v>58.75</v>
+      </c>
+      <c r="C14">
+        <f>MIN(B7:F10)</f>
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <f>MAX(B7:F10)</f>
+        <v>130</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E16" si="0">C14/B14</f>
+        <v>0.52765957446808509</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F16" si="1">D14/B14</f>
+        <v>2.2127659574468086</v>
+      </c>
+      <c r="G14">
+        <v>58.75</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <f>AVERAGE(B2:B6,E4,F2:F6)</f>
+        <v>70.36363636363636</v>
+      </c>
+      <c r="C15">
+        <f>MIN(B3:B6,E4,F3:F6)</f>
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <f>MAX(B3:B6,E4,F3:F6)</f>
+        <v>130</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.28423772609819126</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>1.8475452196382429</v>
+      </c>
+      <c r="G15">
+        <v>70.36363636363636</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE(C2:D6)</f>
+        <v>41.444444444444443</v>
+      </c>
+      <c r="C16">
+        <f>MIN(C2:D6)</f>
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <f>MAX(C2:D6)</f>
+        <v>85</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.2412868632707775</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2.0509383378016088</v>
+      </c>
+      <c r="G16">
+        <v>41.444444444444443</v>
+      </c>
+      <c r="J16">
+        <f>10*0.0055</f>
+        <v>5.4999999999999993E-2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(B2:F6)</f>
+        <v>60.19047619047619</v>
+      </c>
+      <c r="C17">
+        <f>MIN(B2:F6)</f>
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <f>MAX(B2:F6)</f>
+        <v>130</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17" si="2">C17/B17</f>
+        <v>0.16613924050632911</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17" si="3">D17/B17</f>
+        <v>2.1598101265822787</v>
+      </c>
+      <c r="G17">
+        <v>60.19047619047619</v>
+      </c>
+      <c r="J17">
+        <f>J16*(11/7)*310</f>
+        <v>26.792857142857137</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>0.51583710407239813</v>
+      </c>
+      <c r="F19">
+        <v>1.9004524886877827</v>
+      </c>
+      <c r="G19">
+        <v>36.833333333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>0.45085803432137289</v>
+      </c>
+      <c r="F20">
+        <v>1.7238689547581905</v>
+      </c>
+      <c r="G20">
+        <v>75.411764705882348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>0.52765957446808509</v>
+      </c>
+      <c r="F21">
+        <v>2.2127659574468086</v>
+      </c>
+      <c r="G21">
+        <v>58.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>0.28423772609819126</v>
+      </c>
+      <c r="F22">
+        <v>1.8475452196382429</v>
+      </c>
+      <c r="G22">
+        <v>70.36363636363636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>0.2412868632707775</v>
+      </c>
+      <c r="F23">
+        <v>2.0509383378016088</v>
+      </c>
+      <c r="G23">
+        <v>41.444444444444443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>0.16613924050632911</v>
+      </c>
+      <c r="F24">
+        <v>2.1598101265822787</v>
+      </c>
+      <c r="G24">
+        <v>60.19047619047619</v>
       </c>
     </row>
   </sheetData>

--- a/ref/ipcc_data_tables_and_derivations/AFOLU/afolu_c2_general_use_tables.xlsx
+++ b/ref/ipcc_data_tables_and_derivations/AFOLU/afolu_c2_general_use_tables.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ipcc_data_tables_and_derivations/AFOLU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0A74E9-BA31-F645-8C3B-4813831E6729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC9B166-DA97-2849-A8EC-3749F1BE71F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6140" yWindow="460" windowWidth="24220" windowHeight="17520" xr2:uid="{0F7B3AC4-6872-894F-9C5F-CA57A58590FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2.3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -490,7 +490,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ref/ipcc_data_tables_and_derivations/AFOLU/afolu_c2_general_use_tables.xlsx
+++ b/ref/ipcc_data_tables_and_derivations/AFOLU/afolu_c2_general_use_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ipcc_data_tables_and_derivations/AFOLU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC9B166-DA97-2849-A8EC-3749F1BE71F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A11D68-F608-2846-8501-94046181E6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="460" windowWidth="24220" windowHeight="17520" xr2:uid="{0F7B3AC4-6872-894F-9C5F-CA57A58590FF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24220" windowHeight="17520" xr2:uid="{0F7B3AC4-6872-894F-9C5F-CA57A58590FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2.3" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
